--- a/design/详细数值策划文档.xlsx
+++ b/design/详细数值策划文档.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156">
   <si>
     <t>单位</t>
   </si>
@@ -422,6 +422,9 @@
     <t>宇宙之女</t>
   </si>
   <si>
+    <t>等阶</t>
+  </si>
+  <si>
     <t>席纳之墙</t>
   </si>
   <si>
@@ -456,6 +459,33 @@
   </si>
   <si>
     <t>志愿兵</t>
+  </si>
+  <si>
+    <t>黄衣小哥</t>
+  </si>
+  <si>
+    <t>窃格瓦拉</t>
+  </si>
+  <si>
+    <t>电瓶车</t>
+  </si>
+  <si>
+    <t>摩的</t>
+  </si>
+  <si>
+    <t>UU车</t>
+  </si>
+  <si>
+    <t>印度摩的</t>
+  </si>
+  <si>
+    <t>三轮摩的</t>
+  </si>
+  <si>
+    <t>滑板车</t>
+  </si>
+  <si>
+    <t>早餐车</t>
   </si>
 </sst>
 </file>
@@ -463,11 +493,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0.0_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.0_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -493,6 +523,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -508,7 +539,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -529,32 +584,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -584,7 +623,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -593,10 +631,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -613,14 +651,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -631,7 +661,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -643,13 +679,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -661,31 +697,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -697,73 +733,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -781,13 +757,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -805,13 +823,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -827,9 +857,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -851,44 +898,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -922,6 +934,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -930,10 +960,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -942,7 +972,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -951,7 +981,7 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -960,115 +990,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1448,7 +1478,7 @@
   <dimension ref="A1:R38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:Q13"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -3290,8 +3320,8 @@
   <sheetPr/>
   <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -3742,7 +3772,7 @@
   <dimension ref="A1:S20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R20" sqref="B10:R20"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -4841,7 +4871,7 @@
   <dimension ref="A1:R20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q26" sqref="Q26"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -5934,10 +5964,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:R20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -6004,12 +6034,12 @@
         <v>16</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>17</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B2" s="1">
         <v>5000</v>
@@ -6065,7 +6095,7 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B3" s="1">
         <v>800</v>
@@ -6116,12 +6146,12 @@
         <v>-300</v>
       </c>
       <c r="R3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B4" s="1">
         <v>3500</v>
@@ -6177,7 +6207,7 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B5" s="1">
         <v>4000</v>
@@ -6233,7 +6263,7 @@
     </row>
     <row r="6" spans="1:18">
       <c r="A6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B6" s="1">
         <v>2000</v>
@@ -6289,7 +6319,7 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B7" s="1">
         <v>1500</v>
@@ -6340,12 +6370,60 @@
         <v>100</v>
       </c>
       <c r="R7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="B8" s="1">
+        <v>50</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>4</v>
+      </c>
+      <c r="H8" s="1">
+        <v>4</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="1">
+        <v>50</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0</v>
+      </c>
+      <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>0</v>
       </c>
       <c r="R8" t="s">
         <v>100</v>
@@ -6353,7 +6431,7 @@
     </row>
     <row r="9" spans="1:18">
       <c r="A9" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="R9" t="s">
         <v>72</v>
@@ -6361,7 +6439,55 @@
     </row>
     <row r="10" spans="1:18">
       <c r="A10" t="s">
-        <v>144</v>
+        <v>145</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C10" s="1">
+        <v>150</v>
+      </c>
+      <c r="D10" s="1">
+        <v>40</v>
+      </c>
+      <c r="E10" s="1">
+        <v>15</v>
+      </c>
+      <c r="F10" s="1">
+        <v>50</v>
+      </c>
+      <c r="G10" s="1">
+        <v>12</v>
+      </c>
+      <c r="H10" s="1">
+        <v>8</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1250</v>
+      </c>
+      <c r="K10" s="1">
+        <v>8</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10" s="1">
+        <v>1</v>
+      </c>
+      <c r="N10" s="1">
+        <v>1</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>0</v>
       </c>
       <c r="R10" t="s">
         <v>31</v>
@@ -6369,10 +6495,562 @@
     </row>
     <row r="11" spans="1:18">
       <c r="A11" t="s">
-        <v>145</v>
+        <v>146</v>
+      </c>
+      <c r="B11" s="1">
+        <v>100</v>
+      </c>
+      <c r="C11" s="1">
+        <v>10</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>5</v>
+      </c>
+      <c r="F11" s="1">
+        <v>15</v>
+      </c>
+      <c r="G11" s="1">
+        <v>4</v>
+      </c>
+      <c r="H11" s="1">
+        <v>4</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" s="1">
+        <v>100</v>
+      </c>
+      <c r="K11" s="1">
+        <v>1</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M11" s="1">
+        <v>0</v>
+      </c>
+      <c r="N11" s="1">
+        <v>1</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>0</v>
       </c>
       <c r="R11" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" t="s">
+        <v>147</v>
+      </c>
+      <c r="B12" s="1">
+        <v>200</v>
+      </c>
+      <c r="C12" s="1">
+        <v>15</v>
+      </c>
+      <c r="D12" s="1">
+        <v>5</v>
+      </c>
+      <c r="E12" s="1">
+        <v>5</v>
+      </c>
+      <c r="F12" s="1">
+        <v>20</v>
+      </c>
+      <c r="G12" s="1">
+        <v>6</v>
+      </c>
+      <c r="H12" s="1">
+        <v>5</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" s="1">
+        <v>150</v>
+      </c>
+      <c r="K12" s="1">
+        <v>3</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M12" s="1">
+        <v>1</v>
+      </c>
+      <c r="N12" s="1">
+        <v>1</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>0</v>
+      </c>
+      <c r="R12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" t="s">
+        <v>148</v>
+      </c>
+      <c r="B13" s="1">
+        <v>250</v>
+      </c>
+      <c r="C13" s="1">
+        <v>25</v>
+      </c>
+      <c r="D13" s="1">
+        <v>15</v>
+      </c>
+      <c r="E13" s="1">
+        <v>7</v>
+      </c>
+      <c r="F13" s="1">
+        <v>30</v>
+      </c>
+      <c r="G13" s="1">
+        <v>10</v>
+      </c>
+      <c r="H13" s="1">
+        <v>5</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J13" s="1">
+        <v>250</v>
+      </c>
+      <c r="K13" s="1">
+        <v>5</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M13" s="1">
+        <v>1</v>
+      </c>
+      <c r="N13" s="1">
+        <v>1</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>0</v>
+      </c>
+      <c r="R13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" t="s">
+        <v>149</v>
+      </c>
+      <c r="B14" s="1">
+        <v>500</v>
+      </c>
+      <c r="C14" s="1">
+        <v>30</v>
+      </c>
+      <c r="D14" s="1">
+        <v>20</v>
+      </c>
+      <c r="E14" s="1">
+        <v>10</v>
+      </c>
+      <c r="F14" s="1">
+        <v>10</v>
+      </c>
+      <c r="G14" s="1">
+        <v>10</v>
+      </c>
+      <c r="H14" s="1">
+        <v>5</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J14" s="1">
+        <v>500</v>
+      </c>
+      <c r="K14" s="1">
+        <v>5</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M14" s="1">
+        <v>0</v>
+      </c>
+      <c r="N14" s="1">
+        <v>1</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>0</v>
+      </c>
+      <c r="R14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15" t="s">
+        <v>150</v>
+      </c>
+      <c r="B15" s="1">
+        <v>500</v>
+      </c>
+      <c r="C15" s="1">
+        <v>30</v>
+      </c>
+      <c r="D15" s="1">
+        <v>20</v>
+      </c>
+      <c r="E15" s="1">
+        <v>10</v>
+      </c>
+      <c r="F15" s="1">
+        <v>10</v>
+      </c>
+      <c r="G15" s="1">
+        <v>10</v>
+      </c>
+      <c r="H15" s="1">
+        <v>5</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J15" s="1">
+        <v>800</v>
+      </c>
+      <c r="K15" s="1">
+        <v>5</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M15" s="1">
+        <v>1</v>
+      </c>
+      <c r="N15" s="1">
+        <v>1</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>0</v>
+      </c>
+      <c r="R15" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16" t="s">
+        <v>151</v>
+      </c>
+      <c r="B16" s="1">
+        <v>500</v>
+      </c>
+      <c r="C16" s="1">
+        <v>30</v>
+      </c>
+      <c r="D16" s="1">
+        <v>20</v>
+      </c>
+      <c r="E16" s="1">
+        <v>10</v>
+      </c>
+      <c r="F16" s="1">
+        <v>10</v>
+      </c>
+      <c r="G16" s="1">
+        <v>10</v>
+      </c>
+      <c r="H16" s="1">
+        <v>5</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J16" s="1">
+        <v>600</v>
+      </c>
+      <c r="K16" s="1">
+        <v>5</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M16" s="1">
+        <v>0</v>
+      </c>
+      <c r="N16" s="1">
+        <v>1</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>0</v>
+      </c>
+      <c r="R16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17" t="s">
+        <v>152</v>
+      </c>
+      <c r="B17" s="1">
+        <v>400</v>
+      </c>
+      <c r="C17" s="1">
+        <v>50</v>
+      </c>
+      <c r="D17" s="1">
+        <v>30</v>
+      </c>
+      <c r="E17" s="1">
+        <v>10</v>
+      </c>
+      <c r="F17" s="1">
+        <v>15</v>
+      </c>
+      <c r="G17" s="1">
+        <v>10</v>
+      </c>
+      <c r="H17" s="1">
+        <v>5</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J17" s="1">
+        <v>800</v>
+      </c>
+      <c r="K17" s="1">
+        <v>5</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M17" s="1">
+        <v>1</v>
+      </c>
+      <c r="N17" s="1">
+        <v>1</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>0</v>
+      </c>
+      <c r="R17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18" t="s">
+        <v>153</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1000</v>
+      </c>
+      <c r="C18" s="1">
+        <v>60</v>
+      </c>
+      <c r="D18" s="1">
+        <v>50</v>
+      </c>
+      <c r="E18" s="1">
+        <v>10</v>
+      </c>
+      <c r="F18" s="1">
+        <v>15</v>
+      </c>
+      <c r="G18" s="1">
+        <v>8</v>
+      </c>
+      <c r="H18" s="1">
+        <v>5</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J18" s="1">
+        <v>1000</v>
+      </c>
+      <c r="K18" s="1">
+        <v>8</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M18" s="1">
+        <v>1</v>
+      </c>
+      <c r="N18" s="1">
+        <v>1</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>0</v>
+      </c>
+      <c r="R18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19" t="s">
+        <v>154</v>
+      </c>
+      <c r="B19" s="1">
+        <v>400</v>
+      </c>
+      <c r="C19" s="1">
+        <v>100</v>
+      </c>
+      <c r="D19" s="1">
+        <v>10</v>
+      </c>
+      <c r="E19" s="1">
+        <v>12</v>
+      </c>
+      <c r="F19" s="1">
+        <v>20</v>
+      </c>
+      <c r="G19" s="1">
+        <v>15</v>
+      </c>
+      <c r="H19" s="1">
+        <v>4</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J19" s="1">
+        <v>800</v>
+      </c>
+      <c r="K19" s="1">
+        <v>8</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M19" s="1">
+        <v>1</v>
+      </c>
+      <c r="N19" s="1">
+        <v>1</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>0</v>
+      </c>
+      <c r="R19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20" t="s">
+        <v>155</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1500</v>
+      </c>
+      <c r="C20" s="1">
+        <v>150</v>
+      </c>
+      <c r="D20" s="1">
+        <v>80</v>
+      </c>
+      <c r="E20" s="1">
+        <v>12</v>
+      </c>
+      <c r="F20" s="1">
+        <v>20</v>
+      </c>
+      <c r="G20" s="1">
+        <v>15</v>
+      </c>
+      <c r="H20" s="1">
+        <v>5</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J20" s="1">
+        <v>1500</v>
+      </c>
+      <c r="K20" s="1">
+        <v>8</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M20" s="1">
+        <v>1</v>
+      </c>
+      <c r="N20" s="1">
+        <v>1</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>0</v>
+      </c>
+      <c r="R20" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
